--- a/docs/deliverable3/Getana_Deliverable_3_DailyScrumReport.xlsx
+++ b/docs/deliverable3/Getana_Deliverable_3_DailyScrumReport.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshyam\Desktop\rn\RaiderNAV\docs\deliverable3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22E446A-8424-428F-8240-3A7A5849BDAB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sprint 2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sprint 3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sprint 4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,255 +28,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="116">
-  <si>
-    <t xml:space="preserve">Daily Scrum Report — Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanban board is ZenHub. Use the ZenHub browser extension to view the RaiderNAV Kanban board in GitHub.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings are for development team, and maybe scrum master.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings will be conducted each Wednesday and Saturday, and over email if in-person meetings are not possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each team member should report: what they have done, what they will do, and what impediments prevent them from progressing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Feb 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arpit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joined GitHub project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break down user stories 16-18 and 20. Install ZenHub. Install UMLet. Install Android Studio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joined GitHub project and installed ZenHub.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break down user stories 4-6. Install UMLet. Install Android Studio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break down user stories 7-9. Product mockup. Install UMLet. Install Android Studio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakshyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break down user stories 1-3. Product mockup. Install UMLet. Install Android Studio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break down user stories 13-15. Permission form. Other unscheduled documents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break down user stories 10-12 and 19. Install UMLet. Install Android Studio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Feb 18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="123">
+  <si>
+    <t>Daily Scrum Report — Sprint 1</t>
+  </si>
+  <si>
+    <t>Kanban board is ZenHub. Use the ZenHub browser extension to view the RaiderNAV Kanban board in GitHub.</t>
+  </si>
+  <si>
+    <t>Meetings are for development team, and maybe scrum master.</t>
+  </si>
+  <si>
+    <t>Meetings will be conducted each Wednesday and Saturday, and over email if in-person meetings are not possible.</t>
+  </si>
+  <si>
+    <t>Each team member should report: what they have done, what they will do, and what impediments prevent them from progressing.</t>
+  </si>
+  <si>
+    <t>Meeting 1</t>
+  </si>
+  <si>
+    <t>7 Feb 18</t>
+  </si>
+  <si>
+    <t>Arpit</t>
+  </si>
+  <si>
+    <t>What they have done:</t>
+  </si>
+  <si>
+    <t>Joined GitHub project</t>
+  </si>
+  <si>
+    <t>What they will do:</t>
+  </si>
+  <si>
+    <t>Break down user stories 16-18 and 20. Install ZenHub. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing:</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Joined GitHub project and installed ZenHub.</t>
+  </si>
+  <si>
+    <t>Break down user stories 4-6. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Break down user stories 7-9. Product mockup. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t>Sakshyam</t>
+  </si>
+  <si>
+    <t>Break down user stories 1-3. Product mockup. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t>Vasilis</t>
+  </si>
+  <si>
+    <t>Break down user stories 13-15. Permission form. Other unscheduled documents.</t>
+  </si>
+  <si>
+    <t>Yong</t>
+  </si>
+  <si>
+    <t>Break down user stories 10-12 and 19. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t>Meeting 2</t>
+  </si>
+  <si>
+    <t>10 Feb 18</t>
   </si>
   <si>
     <t xml:space="preserve">What they have done: </t>
   </si>
   <si>
-    <t xml:space="preserve">Absent from meeting</t>
+    <t>Absent from meeting</t>
   </si>
   <si>
     <t xml:space="preserve">What will they do: </t>
   </si>
   <si>
-    <t xml:space="preserve">Learn how to do use cases, install UMLet, install Android Studio, install ZenHub</t>
+    <t>Learn how to do use cases, install UMLet, install Android Studio, install ZenHub</t>
   </si>
   <si>
     <t xml:space="preserve">What impediments prevent them from progressing: </t>
   </si>
   <si>
-    <t xml:space="preserve">Installed Androi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed Android Studio, reqs and use cases for 4-6, interview scripts</t>
+    <t>Installed Androi</t>
+  </si>
+  <si>
+    <t>Installed Android Studio, reqs and use cases for 4-6, interview scripts</t>
   </si>
   <si>
     <t xml:space="preserve">What they will do: </t>
   </si>
   <si>
-    <t xml:space="preserve">Update interview script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed Android Studio, reqs and use cases for 7-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed Android Studio, reqs and use cases for 1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reqs and use cases for stories 13-15, permission form, created various documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed Android Studio, reqs and use cases for 10-12 and 18-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Feb 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed Android Studio, Installed UMLet, Installed ZenHub, Installed GitKraken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not knowing how to do use cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focus Group document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Mockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Feb 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focus Group document, SRS document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END OF SPRINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Scrum Report — Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings are for development team, product owner, and scrum master.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Project Proposal Presentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Attend next meeting 2/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Update Kanban Board, Update Daily Scrum Report, Update Sprint Backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: What they will do: Attend next meeting 2/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Organize focus groups participants and meeting time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Update Product Backlog for start of Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Project Propsosal Presentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Attended meeting, planned presentation</t>
+    <t>Update interview script</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Installed Android Studio, reqs and use cases for 7-9</t>
+  </si>
+  <si>
+    <t>Mockup</t>
+  </si>
+  <si>
+    <t>Installed Android Studio, reqs and use cases for 1-3</t>
+  </si>
+  <si>
+    <t>reqs and use cases for stories 13-15, permission form, created various documents</t>
+  </si>
+  <si>
+    <t>Installed Android Studio, reqs and use cases for 10-12 and 18-20</t>
+  </si>
+  <si>
+    <t>Meeting 3</t>
+  </si>
+  <si>
+    <t>12 Feb 18</t>
+  </si>
+  <si>
+    <t>Installed Android Studio, Installed UMLet, Installed ZenHub, Installed GitKraken</t>
+  </si>
+  <si>
+    <t>SRS document</t>
+  </si>
+  <si>
+    <t>Not knowing how to do use cases</t>
+  </si>
+  <si>
+    <t>Focus Group document</t>
+  </si>
+  <si>
+    <t>Product Mockup</t>
+  </si>
+  <si>
+    <t>Meeting 4</t>
+  </si>
+  <si>
+    <t>13 Feb 18</t>
+  </si>
+  <si>
+    <t>Focus Group document, SRS document</t>
+  </si>
+  <si>
+    <t>END OF SPRINT</t>
+  </si>
+  <si>
+    <t>Daily Scrum Report — Sprint 2</t>
+  </si>
+  <si>
+    <t>Meetings are for development team, product owner, and scrum master.</t>
+  </si>
+  <si>
+    <t>What they have done: Project Proposal Presentation</t>
+  </si>
+  <si>
+    <t>What they will do: Attend next meeting 2/18</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing: N/A</t>
+  </si>
+  <si>
+    <t>What they have done: Update Kanban Board, Update Daily Scrum Report, Update Sprint Backlog</t>
+  </si>
+  <si>
+    <t>What they will do: What they will do: Attend next meeting 2/18</t>
+  </si>
+  <si>
+    <t>What they will do: Organize focus groups participants and meeting time</t>
+  </si>
+  <si>
+    <t>What they have done: Update Product Backlog for start of Sprint 2</t>
+  </si>
+  <si>
+    <t>What they have done: Project Propsosal Presentation</t>
+  </si>
+  <si>
+    <t>What they have done: Attended meeting, planned presentation</t>
   </si>
   <si>
     <t xml:space="preserve">What will they do: Implement driver code to utilize google maps API to generate route from provided schedule detail </t>
   </si>
   <si>
-    <t xml:space="preserve">What they have done: Attended meeting, planned presentation, planned sprint 2 product implementation, updated zenhub board, updated sprint backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Implement data structure for mapping building prefixes to physical addresses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Absent from meeting (with valid reason)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Organize focus group participants and meeting time, Create user interface for recalling schedules, schedule selection, and detail display</t>
+    <t>What they have done: Attended meeting, planned presentation, planned sprint 2 product implementation, updated zenhub board, updated sprint backlog</t>
+  </si>
+  <si>
+    <t>What they will do: Implement data structure for mapping building prefixes to physical addresses</t>
+  </si>
+  <si>
+    <t>What they have done: Absent from meeting (with valid reason)</t>
+  </si>
+  <si>
+    <t>What they will do: Organize focus group participants and meeting time, Create user interface for recalling schedules, schedule selection, and detail display</t>
   </si>
   <si>
     <t xml:space="preserve">What impediments prevent them from progressing: N/A </t>
   </si>
   <si>
-    <t xml:space="preserve">What they have done: Attended meeting, planned presentation, planned sprint 2 product implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Create user interface for creating a schedule, adding classes, and saving a schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Implement backend functionality for saving and recalling saved schedules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Implement front end for route display after API calls to generate route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Completed focus group session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Implement driver code to utilize google maps API to generate route from provided schedule detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: Unfamiliarity with platforms/APIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Completed Android Studio &amp; Google Maps API tutorials, Completed focus group session, Implemented hashmap for building to address mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Test hashmap functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing:  Busy schedule/other classwork, Unfamiliarity with platforms/APIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Organized focus group participants, Completed focus group session, Led focus group interaction, Started edit schedule interface</t>
+    <t>What they have done: Attended meeting, planned presentation, planned sprint 2 product implementation</t>
+  </si>
+  <si>
+    <t>What they will do: Create user interface for creating a schedule, adding classes, and saving a schedule</t>
+  </si>
+  <si>
+    <t>What they will do: Implement backend functionality for saving and recalling saved schedules</t>
+  </si>
+  <si>
+    <t>What they will do: Implement front end for route display after API calls to generate route</t>
+  </si>
+  <si>
+    <t>What they have done: Completed focus group session</t>
+  </si>
+  <si>
+    <t>What they will do: Implement driver code to utilize google maps API to generate route from provided schedule detail</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing: Unfamiliarity with platforms/APIs</t>
+  </si>
+  <si>
+    <t>What they have done: Completed Android Studio &amp; Google Maps API tutorials, Completed focus group session, Implemented hashmap for building to address mapping</t>
+  </si>
+  <si>
+    <t>What they will do: Test hashmap functionality</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing:  Busy schedule/other classwork, Unfamiliarity with platforms/APIs</t>
+  </si>
+  <si>
+    <t>What they have done: Organized focus group participants, Completed focus group session, Led focus group interaction, Started edit schedule interface</t>
   </si>
   <si>
     <t xml:space="preserve">What they will do: Continue working on app implementation </t>
   </si>
   <si>
-    <t xml:space="preserve">What they have done: Completed creating home screen, create schedule screen and settings screen and linked those screens with buttons from home screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Work on user interface</t>
+    <t>What they have done: Completed creating home screen, create schedule screen and settings screen and linked those screens with buttons from home screen.</t>
+  </si>
+  <si>
+    <t>What they will do: Work on user interface</t>
   </si>
   <si>
     <t xml:space="preserve">What impediments prevent them from progressing: Has been sick. </t>
@@ -280,128 +285,130 @@
     <t xml:space="preserve">What they have done: Added Google maps API key to project, Created some basic activites for app, Implemented load/save for schedules </t>
   </si>
   <si>
-    <t xml:space="preserve">What they will do: Complete save/load schedule implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: Other classwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Continue working on app implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: Problems with Android Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Scrum Report — Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: No work completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Begin implementation tasks (Maps API code calls) assigned previously, Create configuration management plan document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: Difficulty with implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Rewrote hashmap to utilize latitudinal and longitudal coordinates(addresses were not accurate enough)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Complete sprint 2 review , team member report, &amp; focus group document. Update sprint/product backlog at end of sprint. Complete first app release implementation. Create GRL &amp; UCM models document.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: Difficulty with implementation, other classwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Began working on user interface implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Create domain model &amp; detailed design document. Complete first app release implementation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done:  Began working on user interface implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Update product backlog,Complete first app release implementation. Create domain model &amp; detailed design document.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: Difficulty with implementation, other classwork, Still not feeling well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Completed work for saving/loading schedules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Update platform &amp; SRS/Use case model document. Created GRL &amp; UCM models document. Complete first app release implementation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Began working on map interface implementation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do:  Create GRL &amp; UCM models document. Complete first app release implementation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: No work completed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What will they do: Not present for scrum meeting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: Not present for scrum meeting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Miscellaneous documentation tasks, Updated SRS and UML document, Created configuration management plan document.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Enjoy spring break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Completed detailed design and domain model document, completed first few user interface implementations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Completed first few user interface implementations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Completed first few user interface implementations, Miscellaneous implementation fixes, Implemented story number 4, Updated SRS and UML document, Worked on GRL and UCM model document. Created configuration management plan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Worked on GRL and UCM model document. Implemented showing route between start and destination points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Scrum Report — Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?? Mar 18</t>
+    <t>What they will do: Complete save/load schedule implementation</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing: Other classwork</t>
+  </si>
+  <si>
+    <t>What they will do: Continue working on app implementation</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing: Problems with Android Studio</t>
+  </si>
+  <si>
+    <t>Daily Scrum Report — Sprint 3</t>
+  </si>
+  <si>
+    <t>What they have done: No work completed</t>
+  </si>
+  <si>
+    <t>What they will do: Begin implementation tasks (Maps API code calls) assigned previously, Create configuration management plan document</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing: Difficulty with implementation</t>
+  </si>
+  <si>
+    <t>What they have done: Rewrote hashmap to utilize latitudinal and longitudal coordinates(addresses were not accurate enough)</t>
+  </si>
+  <si>
+    <t>What they will do: Complete sprint 2 review , team member report, &amp; focus group document. Update sprint/product backlog at end of sprint. Complete first app release implementation. Create GRL &amp; UCM models document.</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing: Difficulty with implementation, other classwork</t>
+  </si>
+  <si>
+    <t>What they have done: Began working on user interface implementation</t>
+  </si>
+  <si>
+    <t>What they will do: Create domain model &amp; detailed design document. Complete first app release implementation.</t>
+  </si>
+  <si>
+    <t>What they have done:  Began working on user interface implementation</t>
+  </si>
+  <si>
+    <t>What they will do: Update product backlog,Complete first app release implementation. Create domain model &amp; detailed design document.</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing: Difficulty with implementation, other classwork, Still not feeling well</t>
+  </si>
+  <si>
+    <t>What they have done: Completed work for saving/loading schedules</t>
+  </si>
+  <si>
+    <t>What they will do: Update platform &amp; SRS/Use case model document. Created GRL &amp; UCM models document. Complete first app release implementation.</t>
+  </si>
+  <si>
+    <t>What they have done: Began working on map interface implementation.</t>
+  </si>
+  <si>
+    <t>What they will do:  Create GRL &amp; UCM models document. Complete first app release implementation.</t>
+  </si>
+  <si>
+    <t>What they have done: No work completed.</t>
+  </si>
+  <si>
+    <t>What will they do: Not present for scrum meeting.</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing: Not present for scrum meeting.</t>
+  </si>
+  <si>
+    <t>What they have done: Miscellaneous documentation tasks, Updated SRS and UML document, Created configuration management plan document.</t>
+  </si>
+  <si>
+    <t>What they will do: Enjoy spring break</t>
+  </si>
+  <si>
+    <t>What they have done: Completed detailed design and domain model document, completed first few user interface implementations.</t>
+  </si>
+  <si>
+    <t>What they have done: Completed first few user interface implementations</t>
+  </si>
+  <si>
+    <t>What they have done: Completed first few user interface implementations, Miscellaneous implementation fixes, Implemented story number 4, Updated SRS and UML document, Worked on GRL and UCM model document. Created configuration management plan.</t>
+  </si>
+  <si>
+    <t>What they have done: Worked on GRL and UCM model document. Implemented showing route between start and destination points.</t>
+  </si>
+  <si>
+    <t>Daily Scrum Report — Sprint 4</t>
+  </si>
+  <si>
+    <t>?? Mar 18</t>
+  </si>
+  <si>
+    <t>Attended meeting, planned implementation of more user stories</t>
+  </si>
+  <si>
+    <t>Add a privacy policy message , Update Daily Scrum Report, Update Kanban Board, Update Team Member report, Create Sprint Bakclog.</t>
+  </si>
+  <si>
+    <t>Implement quickfind feature on the app, Create product backlog.</t>
+  </si>
+  <si>
+    <t>Implement a functionality to add temporary locations to the app.</t>
+  </si>
+  <si>
+    <t>Design the app to determine location of buildings matching TTU database</t>
+  </si>
+  <si>
+    <t>Create a verification screen for delete button in deleteSchedule.</t>
+  </si>
+  <si>
+    <t>Impement code to show the shortest route possible at all times</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM\-YY"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -425,7 +432,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -433,61 +440,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -546,205 +513,513 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A108" activeCellId="0" sqref="A108"/>
+    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.5"/>
+    <col min="1" max="1025" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -758,43 +1033,43 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -804,125 +1079,125 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>26</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>26</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>26</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -936,165 +1211,165 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>26</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0" t="s">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>33</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0" t="s">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>33</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="0" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>26</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="0" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>33</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="0" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>30</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="0" t="s">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>33</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="0" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="0" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>33</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="0" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1108,156 +1383,156 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>26</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="0" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="0" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="0" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="0" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>30</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="G91" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="0" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="0" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>30</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="0" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="0" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>30</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>26</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="0" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="0" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
         <v>30</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>22</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>26</v>
       </c>
-      <c r="G105" s="0" t="s">
+      <c r="G105" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="0" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="0" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
         <v>30</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>51</v>
       </c>
@@ -1274,10 +1549,9 @@
       <c r="L108" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1285,158 +1559,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.5"/>
+    <col min="1" max="1025" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>43147</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1450,123 +1721,123 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="4">
         <v>43149</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1580,123 +1851,123 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="4">
         <v>43154</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="0" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="0" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="0" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="0" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="0" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="0" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="0" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>51</v>
       </c>
@@ -1713,10 +1984,9 @@
       <c r="L83" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1724,158 +1994,155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.5"/>
+    <col min="1" max="1025" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>43161</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1889,123 +2156,123 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="4">
         <v>43167</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
@@ -2022,10 +2289,9 @@
       <c r="L56" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2033,158 +2299,191 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.5"/>
+    <col min="1" max="1025" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B7" s="4">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+      <c r="E13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2198,123 +2497,123 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
@@ -2331,10 +2630,9 @@
       <c r="L56" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/docs/deliverable3/Getana_Deliverable_3_DailyScrumReport.xlsx
+++ b/docs/deliverable3/Getana_Deliverable_3_DailyScrumReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshyam\Desktop\rn\RaiderNAV\docs\deliverable3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshyam\Desktop\software\RaiderNAV\docs\deliverable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22E446A-8424-428F-8240-3A7A5849BDAB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB911D4-9C6A-45FA-A138-D7B2698C9C6B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="133">
   <si>
     <t>Daily Scrum Report — Sprint 1</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Daily Scrum Report — Sprint 4</t>
   </si>
   <si>
-    <t>?? Mar 18</t>
-  </si>
-  <si>
     <t>Attended meeting, planned implementation of more user stories</t>
   </si>
   <si>
@@ -397,6 +394,39 @@
   </si>
   <si>
     <t>Impement code to show the shortest route possible at all times</t>
+  </si>
+  <si>
+    <t>Created a verificatin screen for delete schedule button, more tasks discussed and divided.</t>
+  </si>
+  <si>
+    <t>Implemented a quickfind feature in the homescreen of the application, more tasks discussed and divided.</t>
+  </si>
+  <si>
+    <t>Implemented a one time welcome screen with privacy notice, updated zenhub board, updated scrum report and sprint backlog.</t>
+  </si>
+  <si>
+    <t>Working on implementing code to show the shortest walking route during navigation.</t>
+  </si>
+  <si>
+    <t>Working on implementing a functionality to add temporary food locations, more tasks discussed and divided.</t>
+  </si>
+  <si>
+    <t>Implemented the app to determine location of buildings matching TTU database, more tasks discussed and divided.</t>
+  </si>
+  <si>
+    <t>Start with creation of  a Test plan document.Update SRS and Use Case models document.Update GRL and UCM Models document.</t>
+  </si>
+  <si>
+    <t>Start creating a Software Architecture and Design Pattern Document. Update SRS and Use Case models document.Update GRL and UCM Models document.</t>
+  </si>
+  <si>
+    <t>Update the domain model and detailed design document. Update SRS and Use Case models document.Update GRL and UCM Models document.</t>
+  </si>
+  <si>
+    <t>Update Configuration Management document, Update platform Document. Update SRS and Use Case models document.Update GRL and UCM Models document.</t>
+  </si>
+  <si>
+    <t>Start creating a Test plan document. Update SRS and Use Case models document.Update GRL and UCM Models document.</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -1997,7 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2303,7 +2333,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2347,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,7 +2385,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,7 +2409,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2403,7 +2433,7 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2419,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2427,7 +2457,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2443,7 +2473,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2451,7 +2481,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2467,7 +2497,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2475,7 +2505,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2501,78 +2531,102 @@
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>43189</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>30</v>
       </c>
@@ -2584,11 +2638,17 @@
       <c r="C49" t="s">
         <v>8</v>
       </c>
+      <c r="E49" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>33</v>
       </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
@@ -2602,10 +2662,16 @@
       <c r="C53" t="s">
         <v>8</v>
       </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">

--- a/docs/deliverable3/Getana_Deliverable_3_DailyScrumReport.xlsx
+++ b/docs/deliverable3/Getana_Deliverable_3_DailyScrumReport.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="157">
   <si>
     <t>Daily Scrum Report — Sprint 1</t>
   </si>
@@ -469,6 +469,36 @@
   </si>
   <si>
     <t>GRL analysis ; Updated configuration management plan document.</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Conduct usability study</t>
+  </si>
+  <si>
+    <t>Record usability study</t>
+  </si>
+  <si>
+    <t>AthletesTraveling</t>
+  </si>
+  <si>
+    <t>Implement user story 2, 34</t>
+  </si>
+  <si>
+    <t>Update URN document, create test plan document</t>
+  </si>
+  <si>
+    <t>Unit test</t>
+  </si>
+  <si>
+    <t>Create usability study document, implement user story 30</t>
+  </si>
+  <si>
+    <t>Conduct usability study, user story 30 implementation</t>
+  </si>
+  <si>
+    <t>Update plateform document, SRS, URN</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -2097,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2402,7 +2432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
@@ -2779,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2813,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>43162</v>
+        <v>43191</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2823,15 +2853,24 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>33</v>
       </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2868,15 +2907,24 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>33</v>
       </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2913,15 +2961,24 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>33</v>
       </c>
+      <c r="E25" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2970,7 +3027,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="4">
-        <v>43167</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -2980,15 +3037,24 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>33</v>
       </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -3025,15 +3091,24 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>33</v>
       </c>
+      <c r="E42" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
@@ -3070,15 +3145,24 @@
       <c r="C49" t="s">
         <v>8</v>
       </c>
+      <c r="E49" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>33</v>
       </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3106,6 +3190,9 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
